--- a/docs/DetailhanderInfo.xlsx
+++ b/docs/DetailhanderInfo.xlsx
@@ -447,13 +447,14 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
